--- a/Forecast 2019/Case studies Data Analyst_V2.xlsx
+++ b/Forecast 2019/Case studies Data Analyst_V2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LILI/Desktop/DataScience_Praca/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LILI/Desktop/DataScience_Praca/TimeSeries/TimeSeries/Forecast 2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2796006C-58C6-2743-9225-CA70893591ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ED1FEE-6F5C-E24D-BC00-28FF1F43566A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="24820" windowHeight="11320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="24820" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case study_original" sheetId="4" r:id="rId1"/>
@@ -790,3693 +790,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Sales </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> for one division 2016-2017</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cleaned!$A$3:$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Mexico</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mexico</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Cleaned!$C$1:$AL$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="36"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>sty.15</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>lut.15</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>mar.15</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>kwi.15</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>maj.15</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>cze.15</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>lip.15</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>sie.15</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>wrz.15</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>paź.15</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>lis.15</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>gru.15</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>sty.16</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>lut.16</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>mar.16</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>kwi.16</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>maj.16</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>cze.16</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>lip.16</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>sie.16</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>wrz.16</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>paź.16</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>lis.16</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>gru.16</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>sty.17</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>lut.17</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>mar.17</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>kwi.17</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>maj.17</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>cze.17</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>lip.17</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>sie.17</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>wrz.17</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>paź.17</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>lis.17</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>gru.17</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ACT YTD 012.2015</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>ACT YTD 012.2016</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>ACT YTD 012.2017</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cleaned!$C$3:$AL$3</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0;\-#\ ##0;#\ ##0</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>13054.861216409799</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14653.245782190599</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17711.860625704801</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14714.1659920315</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16485.796196571999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18859.008260527899</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15644.9931203545</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19374.783458080401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21783.856934918898</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21034.690180997401</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23139.603365782801</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14373.826727506101</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12526.195601567901</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16614.3953791899</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15920.620034354801</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14739.2545669458</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15683.5467880385</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14768.342017827699</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14538.786751027201</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>15709.7215492424</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>24594.0081528185</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20265.1758275352</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>18915.269793388899</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13114.608715394699</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10422.9881466886</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11636.6709575161</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18322.698275965002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14650.880008402501</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>16068.8388282696</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>17394.749884197201</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10150.408372469001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>18954.763738174199</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>20732.329523168599</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>18565.5685787939</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>15337.1229692042</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>11192.068754403101</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4449-4BA0-8C3B-975D1F49EFF5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cleaned!$A$4:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Conosur</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Argentina</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Cleaned!$C$1:$AL$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="36"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>sty.15</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>lut.15</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>mar.15</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>kwi.15</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>maj.15</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>cze.15</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>lip.15</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>sie.15</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>wrz.15</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>paź.15</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>lis.15</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>gru.15</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>sty.16</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>lut.16</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>mar.16</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>kwi.16</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>maj.16</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>cze.16</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>lip.16</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>sie.16</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>wrz.16</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>paź.16</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>lis.16</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>gru.16</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>sty.17</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>lut.17</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>mar.17</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>kwi.17</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>maj.17</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>cze.17</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>lip.17</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>sie.17</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>wrz.17</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>paź.17</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>lis.17</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>gru.17</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ACT YTD 012.2015</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>ACT YTD 012.2016</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>ACT YTD 012.2017</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cleaned!$C$4:$AL$4</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0;\-#\ ##0;#\ ##0</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>6387.8794286838202</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7665.8948893234601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11092.4004123578</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10967.0262704709</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10406.698981944401</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9764.2854620308499</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10906.0823060084</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10052.8401686451</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10948.4332570027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9945.0719722086797</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11157.184986706699</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7923.8988823896898</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7448.0596194559002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7619.0354667770198</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8670.2667807334292</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9170.66852868145</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9988.8079168053191</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9744.8637556068297</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9467.9151725188403</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10371.3406368993</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10462.9456206454</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10414.760541161701</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9865.3255093572297</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8934.5319836155304</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8298.9334955246395</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10536.9244803687</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12139.7750718434</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13270.770256224099</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>12972.1024453424</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12439.983871882599</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10914.3988325028</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11381.911735935801</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>11518.850056074099</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10422.115380969701</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9915.2315600860493</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8666.9525106381207</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4449-4BA0-8C3B-975D1F49EFF5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cleaned!$A$5:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Conosur</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Chile</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Cleaned!$C$1:$AL$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="36"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>sty.15</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>lut.15</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>mar.15</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>kwi.15</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>maj.15</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>cze.15</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>lip.15</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>sie.15</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>wrz.15</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>paź.15</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>lis.15</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>gru.15</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>sty.16</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>lut.16</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>mar.16</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>kwi.16</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>maj.16</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>cze.16</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>lip.16</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>sie.16</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>wrz.16</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>paź.16</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>lis.16</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>gru.16</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>sty.17</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>lut.17</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>mar.17</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>kwi.17</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>maj.17</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>cze.17</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>lip.17</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>sie.17</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>wrz.17</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>paź.17</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>lis.17</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>gru.17</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ACT YTD 012.2015</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>ACT YTD 012.2016</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>ACT YTD 012.2017</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cleaned!$C$5:$AL$5</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0;\-#\ ##0;#\ ##0</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>1175.000027735</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1106.75826382127</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1343.0997068388599</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1824.9999891827999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1913.9999861035999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1889.9999938021999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1822.0000192553</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1678.9999990076001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1617.9999816272</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1694.0000143945999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1370.9999642656001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1316.9999929034</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1565.9999854765999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1406.9999865038999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1351.0000064579999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1347.9999913449999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1438.0000143509999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1283.9999984352</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1303.9999936495001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1398.0000061840001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1320.9199960107001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1284.0000106340001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1287.8310749774</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1355.0000001328001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1357.0000040970001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1247.0000043354</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1177.0000018312001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1128.9999978528001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1279.9999877763</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1360.9999917447999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1360.0000103709999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1324.0000015936</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1295.000003629</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1397.0000149565001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1400.9999884245999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1472.9999922064001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4449-4BA0-8C3B-975D1F49EFF5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cleaned!$A$6:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Conosur</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Other Conosur (Bol/Per/Uru)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Cleaned!$C$1:$AL$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="36"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>sty.15</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>lut.15</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>mar.15</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>kwi.15</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>maj.15</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>cze.15</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>lip.15</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>sie.15</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>wrz.15</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>paź.15</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>lis.15</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>gru.15</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>sty.16</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>lut.16</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>mar.16</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>kwi.16</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>maj.16</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>cze.16</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>lip.16</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>sie.16</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>wrz.16</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>paź.16</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>lis.16</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>gru.16</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>sty.17</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>lut.17</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>mar.17</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>kwi.17</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>maj.17</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>cze.17</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>lip.17</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>sie.17</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>wrz.17</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>paź.17</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>lis.17</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>gru.17</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ACT YTD 012.2015</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>ACT YTD 012.2016</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>ACT YTD 012.2017</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cleaned!$C$6:$AL$6</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0;\-#\ ##0;#\ ##0</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>1006.4860598699725</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1125.7336698889526</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1553.252032696877</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1356.4029417200491</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1143.423201790499</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1429.2296689871971</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1299.6594413558391</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1178.5221626604518</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1115.971150492104</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1056.1913158918874</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1078.1575097245177</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1019.8205896135872</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>932.40911374553582</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>951.38086394184097</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1000.0000174689999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1123.999988304595</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1145.0000347378145</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1129.9999968050399</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1274.0000073551091</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1197.000012622628</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1211.9999724109589</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1142.1603083902996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1150.0000132186556</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1138.000004926397</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1162.0000011940599</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1232.0000291671199</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1363.0000462027599</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1275.0000202123299</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1375.99999316511</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1520.99997594825</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1410.9999801167201</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1256.99998414313</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1205.9999837548701</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1213.0000270967</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1156.0000107753399</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1095.99997762978</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4449-4BA0-8C3B-975D1F49EFF5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cleaned!$A$7:$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Brazil</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Brazil</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Cleaned!$C$1:$AL$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="36"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>sty.15</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>lut.15</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>mar.15</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>kwi.15</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>maj.15</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>cze.15</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>lip.15</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>sie.15</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>wrz.15</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>paź.15</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>lis.15</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>gru.15</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>sty.16</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>lut.16</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>mar.16</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>kwi.16</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>maj.16</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>cze.16</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>lip.16</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>sie.16</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>wrz.16</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>paź.16</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>lis.16</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>gru.16</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>sty.17</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>lut.17</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>mar.17</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>kwi.17</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>maj.17</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>cze.17</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>lip.17</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>sie.17</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>wrz.17</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>paź.17</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>lis.17</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>gru.17</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ACT YTD 012.2015</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>ACT YTD 012.2016</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>ACT YTD 012.2017</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cleaned!$C$7:$AL$7</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0;\-#\ ##0;#\ ##0</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>4938.9999932199598</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9493.9999807933891</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13966.0000094109</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9401.9999873453799</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14231.999984808899</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13996.999989006201</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10777.9999905073</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9807.9999972090809</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11318.9999919082</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10575.0000061872</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10021.000005337</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12127.000006263601</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4036.0065034672198</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7402.00622082885</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12591.4980202401</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8095.0000150448604</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7446.9999819550303</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11528.9579091049</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7240.6000095916397</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11329.000002299001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8448.0000194792901</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10634.788627932099</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9558.9184752043893</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14698.000004842201</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1864.43665583749</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3685.4733011697699</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2665.9997804961199</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9879.9995958224699</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11854.9998013124</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10067.9997764616</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7057.9998813129096</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9563.9999253899405</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10257.000740821401</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>12449.9999623692</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10553.9999579755</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9746.9999230279009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4449-4BA0-8C3B-975D1F49EFF5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cleaned!$A$8:$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Andean</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Colombia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Cleaned!$C$1:$AL$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="36"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>sty.15</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>lut.15</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>mar.15</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>kwi.15</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>maj.15</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>cze.15</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>lip.15</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>sie.15</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>wrz.15</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>paź.15</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>lis.15</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>gru.15</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>sty.16</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>lut.16</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>mar.16</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>kwi.16</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>maj.16</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>cze.16</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>lip.16</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>sie.16</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>wrz.16</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>paź.16</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>lis.16</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>gru.16</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>sty.17</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>lut.17</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>mar.17</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>kwi.17</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>maj.17</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>cze.17</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>lip.17</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>sie.17</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>wrz.17</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>paź.17</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>lis.17</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>gru.17</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ACT YTD 012.2015</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>ACT YTD 012.2016</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>ACT YTD 012.2017</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cleaned!$C$8:$AL$8</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0;\-#\ ##0;#\ ##0</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>4874.2492148359797</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6302.5722977352198</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5235.8635663805599</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5585.36667733181</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6083.2152087842896</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6138.1450394030198</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5478.3609135126298</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5168.7660617209003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4896.1684828750904</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5916.2933455428902</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7866.8147606475204</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4638.6690849830802</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3865.7224092967999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4905.5096408316604</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4762.4138133286997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4453.1042291414897</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5557.5429110872201</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5989.8352690717302</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5285.1642809404302</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4637.9916883092401</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6143.3080100560401</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6589.5069511308002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8193.5431549787208</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6905.2416164507704</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>914.03221667426101</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2998.2312001035398</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5336.2085311478004</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3536.1330637881601</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4811.1635394757704</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3878.4768596395702</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3694.9020602211299</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3500.87043214601</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4448.4003824125602</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5109.9216148776504</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5824.0756680450104</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4781.8093457293999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4449-4BA0-8C3B-975D1F49EFF5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cleaned!$A$9:$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Andean</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ecuador</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Cleaned!$C$1:$AL$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="36"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>sty.15</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>lut.15</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>mar.15</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>kwi.15</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>maj.15</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>cze.15</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>lip.15</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>sie.15</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>wrz.15</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>paź.15</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>lis.15</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>gru.15</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>sty.16</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>lut.16</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>mar.16</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>kwi.16</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>maj.16</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>cze.16</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>lip.16</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>sie.16</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>wrz.16</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>paź.16</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>lis.16</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>gru.16</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>sty.17</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>lut.17</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>mar.17</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>kwi.17</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>maj.17</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>cze.17</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>lip.17</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>sie.17</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>wrz.17</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>paź.17</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>lis.17</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>gru.17</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ACT YTD 012.2015</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>ACT YTD 012.2016</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>ACT YTD 012.2017</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cleaned!$C$9:$AL$9</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0;\-#\ ##0;#\ ##0</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>2906.99999872126</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2470.9999986706798</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2413.9999924998001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2622.0000002945599</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>744.99999124479996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2518.0000101046198</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2335.0000113883002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2748.99997668366</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3504.0000036666002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2882.0000165103102</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2735.9999928073798</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3088.9999931633502</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2352.0000097764801</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2946.9999904400802</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2783.0000016837998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2777.99998820772</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3004.000007222</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2711.9999973208</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2666.0000054034799</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2631.9999957353002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3197.9999917248501</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2309.9999992860298</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3479.9999858568399</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4250.0000066783996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1283.99801944098</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1861.9999857488001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4193.9999409563698</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2311.0000174296802</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3333.99989008185</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3360.0000113098399</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2347.9999713530801</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2782.9999204488199</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3097.9999988111199</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1999.00000317645</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3327.000007053</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4763.0006852441102</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4449-4BA0-8C3B-975D1F49EFF5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cleaned!$A$10:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Andean</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Peru</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Cleaned!$C$1:$AL$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="36"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>sty.15</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>lut.15</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>mar.15</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>kwi.15</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>maj.15</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>cze.15</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>lip.15</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>sie.15</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>wrz.15</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>paź.15</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>lis.15</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>gru.15</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>sty.16</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>lut.16</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>mar.16</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>kwi.16</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>maj.16</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>cze.16</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>lip.16</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>sie.16</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>wrz.16</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>paź.16</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>lis.16</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>gru.16</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>sty.17</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>lut.17</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>mar.17</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>kwi.17</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>maj.17</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>cze.17</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>lip.17</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>sie.17</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>wrz.17</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>paź.17</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>lis.17</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>gru.17</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ACT YTD 012.2015</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>ACT YTD 012.2016</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>ACT YTD 012.2017</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cleaned!$C$10:$AL$10</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0;\-#\ ##0;#\ ##0</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>1437.99997932888</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1552.0000163806601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2147.5285868681199</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1334.0436200213001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1355.74653314803</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1672.1059510989501</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1517.5275727892999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1533.0000112421301</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1559.6813268123899</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1529.34592869324</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1581.67525234133</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>915.29608906860506</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1068.01322108463</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1877.0699505523</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1977.42619041851</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1081.4177928266399</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1617.5309838222699</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1897.09913870623</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1452.4817942498</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1470.0000124502101</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1786.00001298698</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1617.00001481351</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1801.9999911970201</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1100.9999973302699</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>695.99998400764503</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1899.0001973931801</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2613.0000110215001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1586.0000085756701</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>723.00000508713299</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1403.99999697722</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>654.00000174142804</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1592.9999867131201</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2753.9999967082499</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>836.00000257066995</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3534.9371666240299</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1243.0621371843599</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-4449-4BA0-8C3B-975D1F49EFF5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cleaned!$A$11:$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Andean</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Venezuela,Bol.R</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Cleaned!$C$1:$AL$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="36"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>sty.15</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>lut.15</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>mar.15</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>kwi.15</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>maj.15</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>cze.15</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>lip.15</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>sie.15</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>wrz.15</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>paź.15</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>lis.15</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>gru.15</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>sty.16</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>lut.16</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>mar.16</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>kwi.16</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>maj.16</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>cze.16</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>lip.16</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>sie.16</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>wrz.16</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>paź.16</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>lis.16</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>gru.16</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>sty.17</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>lut.17</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>mar.17</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>kwi.17</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>maj.17</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>cze.17</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>lip.17</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>sie.17</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>wrz.17</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>paź.17</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>lis.17</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>gru.17</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ACT YTD 012.2015</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>ACT YTD 012.2016</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>ACT YTD 012.2017</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cleaned!$C$11:$AL$11</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0;\-#\ ##0;#\ ##0</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>2397.99999915228</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3058.9999937951502</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2793.9999933437498</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-7490.0000024615802</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250.00000800180001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>337.00000503997001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>456.58201352725001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>562.95001408484995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>792.37301339620001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1510.0000013566801</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1715.99998434433</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1428.0000057305299</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>117.00000083544001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>101.99999165748</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>106.9999983184</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>105.99999510453</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>171.0000126832</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90.999994515639997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>57.791001979950003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>123.00000265609999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>131.00000732705999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>411.99998939887001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>263.0000054194</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>426.00001588836</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22.999463502560001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>71.000003297679996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>141.99999815308001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>98.000006629959998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>79.000002396520003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>115.00000993993</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>46.999991377955801</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>27.999998091903699</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-9.0000097430663004</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>76.000002032257996</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>26.999966987405902</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>500.99997051828501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-4449-4BA0-8C3B-975D1F49EFF5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cleaned!$A$12:$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Centro / Caribe</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Caribe</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Cleaned!$C$1:$AL$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="36"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>sty.15</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>lut.15</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>mar.15</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>kwi.15</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>maj.15</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>cze.15</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>lip.15</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>sie.15</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>wrz.15</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>paź.15</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>lis.15</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>gru.15</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>sty.16</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>lut.16</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>mar.16</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>kwi.16</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>maj.16</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>cze.16</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>lip.16</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>sie.16</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>wrz.16</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>paź.16</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>lis.16</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>gru.16</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>sty.17</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>lut.17</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>mar.17</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>kwi.17</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>maj.17</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>cze.17</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>lip.17</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>sie.17</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>wrz.17</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>paź.17</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>lis.17</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>gru.17</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ACT YTD 012.2015</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>ACT YTD 012.2016</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>ACT YTD 012.2017</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cleaned!$C$12:$AL$12</c:f>
-              <c:numCache>
-                <c:formatCode>#\ ##0;\-#\ ##0;#\ ##0</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>7847.00011239162</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8890.00006123206</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10857.495057526799</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8892.9999322981803</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8910.4950948706701</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10489.0000740411</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7501.9999476380199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9621.5467726196694</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9131.4950022417106</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9060.9998422739409</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10296.494951164401</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9032.0639733154003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9501.0000697818705</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9486.4950192276192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9498.00014190402</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8339.0000430671498</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9580.0000771658997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9680.4952109815895</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9642.00018793655</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9147.0001252466409</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9510.49502013044</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8690.9999255416406</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10255.434934663501</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10876.999961610099</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8792.9999137592804</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9373.0003346572594</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9579.0000347835503</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8179.0000175510804</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8905.9999653527793</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8687.0000515326392</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7903.0001094187701</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8371.0000444848592</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8172.0000078373796</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10376.999918519299</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10322.000000103</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9759.7469616689104</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-4449-4BA0-8C3B-975D1F49EFF5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="570304160"/>
-        <c:axId val="570295632"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="570304160"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="570295632"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="570295632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#\ ##0;\-#\ ##0;#\ ##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="570304160"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1157939</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>6722</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>37352</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>145674</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4742,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8954,7 +5267,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4:L4"/>
+      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -13322,7 +9635,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W14" sqref="W14"/>
+      <selection pane="bottomRight" activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -14694,7 +11007,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14702,8 +11014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E398B6-005C-E54C-A439-119F245A437C}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16012,6 +12324,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038D4861285C46F4FBC42674F932ECC42" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f8348ea002cd0b01295220eaf89ffc35">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="89ae1381-5298-4696-a007-65dd10597d0f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ce83e8b96596575960cb2690aaae3db2" ns2:_="">
     <xsd:import namespace="89ae1381-5298-4696-a007-65dd10597d0f"/>
@@ -16157,22 +12484,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D136681-E87F-4121-825B-3D1D38CB0E36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="89ae1381-5298-4696-a007-65dd10597d0f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA183CAA-43BB-4D6A-883D-BED88B0D0326}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB63CEF6-3CB5-4837-BC7F-8F958D4DAF83}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16188,28 +12524,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA183CAA-43BB-4D6A-883D-BED88B0D0326}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D136681-E87F-4121-825B-3D1D38CB0E36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="89ae1381-5298-4696-a007-65dd10597d0f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>